--- a/Project-KTXForecasting/Result/20250110_KCI/Forecasting_동해선_FUTR8+LAG0.xlsx
+++ b/Project-KTXForecasting/Result/20250110_KCI/Forecasting_동해선_FUTR8+LAG0.xlsx
@@ -38,19 +38,13 @@
     <t>MedAPE</t>
   </si>
   <si>
+    <t>LSTM</t>
+  </si>
+  <si>
     <t>DilatedRNN</t>
   </si>
   <si>
-    <t>RNN</t>
-  </si>
-  <si>
-    <t>LSTM</t>
-  </si>
-  <si>
     <t>TCN</t>
-  </si>
-  <si>
-    <t>CatBoost</t>
   </si>
   <si>
     <t>XGBoost</t>
@@ -59,19 +53,25 @@
     <t>GRU</t>
   </si>
   <si>
-    <t>LightGBM</t>
+    <t>RNN</t>
   </si>
   <si>
     <t>RandomForest</t>
   </si>
   <si>
+    <t>CatBoost</t>
+  </si>
+  <si>
     <t>NBEATSx</t>
   </si>
   <si>
-    <t>TiDE</t>
+    <t>LightGBM</t>
   </si>
   <si>
     <t>NHITS</t>
+  </si>
+  <si>
+    <t>TiDE</t>
   </si>
   <si>
     <t>MLP</t>
@@ -481,25 +481,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>129005392.1559245</v>
+        <v>177951577.7747396</v>
       </c>
       <c r="C2">
-        <v>11358.05406554857</v>
+        <v>13339.84924107988</v>
       </c>
       <c r="D2">
-        <v>0.0003945546799817251</v>
+        <v>0.0004875033079676151</v>
       </c>
       <c r="E2">
-        <v>7678.442708333333</v>
+        <v>10101.85416666667</v>
       </c>
       <c r="F2">
-        <v>0.01337127272207467</v>
+        <v>0.01706091449289339</v>
       </c>
       <c r="G2">
-        <v>4099.71875</v>
+        <v>7991.15625</v>
       </c>
       <c r="H2">
-        <v>0.007104739713779843</v>
+        <v>0.01354376803782386</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -507,25 +507,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>178283285.2434896</v>
+        <v>138538450.2148438</v>
       </c>
       <c r="C3">
-        <v>13352.27640679632</v>
+        <v>11770.23577566923</v>
       </c>
       <c r="D3">
-        <v>0.0005174630293581728</v>
+        <v>0.0004083040452642946</v>
       </c>
       <c r="E3">
-        <v>10712.46875</v>
+        <v>10389.07291666667</v>
       </c>
       <c r="F3">
-        <v>0.01835262308298224</v>
+        <v>0.01780158732069153</v>
       </c>
       <c r="G3">
-        <v>7309.4375</v>
+        <v>10352.75</v>
       </c>
       <c r="H3">
-        <v>0.01274622621972255</v>
+        <v>0.01698028035217536</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -533,25 +533,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>264827522.3121745</v>
+        <v>178588158.0546875</v>
       </c>
       <c r="C4">
-        <v>16273.52212374981</v>
+        <v>13363.68804090725</v>
       </c>
       <c r="D4">
-        <v>0.0007789011591530466</v>
+        <v>0.0005073297214255497</v>
       </c>
       <c r="E4">
-        <v>11974.18229166667</v>
+        <v>12038.75</v>
       </c>
       <c r="F4">
-        <v>0.02053249437863247</v>
+        <v>0.02039805687288722</v>
       </c>
       <c r="G4">
-        <v>8122.8125</v>
+        <v>11550.375</v>
       </c>
       <c r="H4">
-        <v>0.01428593824225784</v>
+        <v>0.02024298984253699</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -559,25 +559,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>342125207.6611328</v>
+        <v>940585468.4833984</v>
       </c>
       <c r="C5">
-        <v>18496.62692658131</v>
+        <v>30668.96588545819</v>
       </c>
       <c r="D5">
-        <v>0.0010213035292111</v>
+        <v>0.002459655118119542</v>
       </c>
       <c r="E5">
-        <v>14080.65104166667</v>
+        <v>20803.734375</v>
       </c>
       <c r="F5">
-        <v>0.02436502953606017</v>
+        <v>0.03454097962276722</v>
       </c>
       <c r="G5">
-        <v>10312.375</v>
+        <v>12984.65625</v>
       </c>
       <c r="H5">
-        <v>0.01804900912193832</v>
+        <v>0.02202115804635551</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -585,25 +585,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1590811592.99676</v>
+        <v>498335916.2223307</v>
       </c>
       <c r="C6">
-        <v>39884.97954113504</v>
+        <v>22323.438718583</v>
       </c>
       <c r="D6">
-        <v>0.004521520762428805</v>
+        <v>0.001418869990033051</v>
       </c>
       <c r="E6">
-        <v>33654.37072193772</v>
+        <v>18189.63020833333</v>
       </c>
       <c r="F6">
-        <v>0.05726424896621567</v>
+        <v>0.03092821244955826</v>
       </c>
       <c r="G6">
-        <v>24831.48615952925</v>
+        <v>16246.5</v>
       </c>
       <c r="H6">
-        <v>0.04184076779834081</v>
+        <v>0.02827837280889507</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -611,25 +611,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1325137378.404622</v>
+        <v>530766007.8818359</v>
       </c>
       <c r="C7">
-        <v>36402.43643500559</v>
+        <v>23038.35948764225</v>
       </c>
       <c r="D7">
-        <v>0.003708118000164464</v>
+        <v>0.001524492222799453</v>
       </c>
       <c r="E7">
-        <v>31456.27604166667</v>
+        <v>19481.328125</v>
       </c>
       <c r="F7">
-        <v>0.05326632240895612</v>
+        <v>0.03311761438384749</v>
       </c>
       <c r="G7">
-        <v>27827.0625</v>
+        <v>16790.28125</v>
       </c>
       <c r="H7">
-        <v>0.04792955487554344</v>
+        <v>0.02817369694494071</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -637,25 +637,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1013755112.829834</v>
+        <v>879760234.0615407</v>
       </c>
       <c r="C8">
-        <v>31839.52124058768</v>
+        <v>29660.7524190055</v>
       </c>
       <c r="D8">
-        <v>0.003011506222088944</v>
+        <v>0.002347603192717029</v>
       </c>
       <c r="E8">
-        <v>27732.65364583333</v>
+        <v>22897.10416666666</v>
       </c>
       <c r="F8">
-        <v>0.04779276529015287</v>
+        <v>0.03808739375252713</v>
       </c>
       <c r="G8">
-        <v>33353.046875</v>
+        <v>24320.51000000001</v>
       </c>
       <c r="H8">
-        <v>0.05749149436737125</v>
+        <v>0.04086194569568742</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -663,25 +663,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1705871588.198674</v>
+        <v>1153775317.376544</v>
       </c>
       <c r="C9">
-        <v>41302.19834583475</v>
+        <v>33967.26832373402</v>
       </c>
       <c r="D9">
-        <v>0.004776692718897279</v>
+        <v>0.003202597932307318</v>
       </c>
       <c r="E9">
-        <v>36186.76961762798</v>
+        <v>27257.48955666245</v>
       </c>
       <c r="F9">
-        <v>0.06125343533762104</v>
+        <v>0.04580628618892174</v>
       </c>
       <c r="G9">
-        <v>35575.08102962858</v>
+        <v>24740.38893475791</v>
       </c>
       <c r="H9">
-        <v>0.06129189007688167</v>
+        <v>0.04136597006503873</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -689,25 +689,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1735975790.835642</v>
+        <v>1572804744.982422</v>
       </c>
       <c r="C10">
-        <v>41665.04279171739</v>
+        <v>39658.60240833534</v>
       </c>
       <c r="D10">
-        <v>0.004916575924354161</v>
+        <v>0.004408056084029394</v>
       </c>
       <c r="E10">
-        <v>38258.82083333333</v>
+        <v>31011.82291666667</v>
       </c>
       <c r="F10">
-        <v>0.06505812157720169</v>
+        <v>0.05231698215928876</v>
       </c>
       <c r="G10">
-        <v>35513.79500000004</v>
+        <v>22714.25</v>
       </c>
       <c r="H10">
-        <v>0.06149888318991101</v>
+        <v>0.04024153792142941</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -715,25 +715,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>2415397924.110433</v>
+        <v>1278854264.88648</v>
       </c>
       <c r="C11">
-        <v>49146.69799803882</v>
+        <v>35761.07192026659</v>
       </c>
       <c r="D11">
-        <v>0.006861514019855914</v>
+        <v>0.00344039374451874</v>
       </c>
       <c r="E11">
-        <v>40568.24739583334</v>
+        <v>29471.60842446639</v>
       </c>
       <c r="F11">
-        <v>0.06907293995211335</v>
+        <v>0.04908966569275342</v>
       </c>
       <c r="G11">
-        <v>38372.5625</v>
+        <v>25843.338011657</v>
       </c>
       <c r="H11">
-        <v>0.06483094099359961</v>
+        <v>0.04418630663264287</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -741,25 +741,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>3780857262.027506</v>
+        <v>2316007173.799316</v>
       </c>
       <c r="C12">
-        <v>61488.67588448711</v>
+        <v>48124.91219523747</v>
       </c>
       <c r="D12">
-        <v>0.0114870583567957</v>
+        <v>0.006566978405261465</v>
       </c>
       <c r="E12">
-        <v>50117.359375</v>
+        <v>39169.84895833334</v>
       </c>
       <c r="F12">
-        <v>0.08702439473952793</v>
+        <v>0.06614974860393365</v>
       </c>
       <c r="G12">
-        <v>39814.53125</v>
+        <v>42416.4375</v>
       </c>
       <c r="H12">
-        <v>0.06791734188810175</v>
+        <v>0.07218420389531045</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -767,25 +767,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>3741776379.984212</v>
+        <v>12687542773.6744</v>
       </c>
       <c r="C13">
-        <v>61170.06114092263</v>
+        <v>112638.9931314836</v>
       </c>
       <c r="D13">
-        <v>0.01090817418942857</v>
+        <v>0.03669993682085468</v>
       </c>
       <c r="E13">
-        <v>54804.08333333334</v>
+        <v>98771.0078125</v>
       </c>
       <c r="F13">
-        <v>0.09395217661654727</v>
+        <v>0.1678253520157464</v>
       </c>
       <c r="G13">
-        <v>54423.640625</v>
+        <v>102526.640625</v>
       </c>
       <c r="H13">
-        <v>0.09761060630517794</v>
+        <v>0.1793045552600222</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -793,25 +793,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>44692270731.16129</v>
+        <v>63454496569.97974</v>
       </c>
       <c r="C14">
-        <v>211405.4652348451</v>
+        <v>251901.7597595931</v>
       </c>
       <c r="D14">
-        <v>0.1325349240895108</v>
+        <v>0.184621338103873</v>
       </c>
       <c r="E14">
-        <v>208135.8385416667</v>
+        <v>250854.4453125</v>
       </c>
       <c r="F14">
-        <v>0.3583789082365796</v>
+        <v>0.4280153754857234</v>
       </c>
       <c r="G14">
-        <v>217840.171875</v>
+        <v>248258.390625</v>
       </c>
       <c r="H14">
-        <v>0.3567085611961366</v>
+        <v>0.4309244076309444</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -879,757 +879,757 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>565822</v>
+        <v>570404</v>
       </c>
       <c r="D2">
-        <v>564944.3125</v>
+        <v>584279.625</v>
       </c>
       <c r="E2">
-        <v>558662</v>
+        <v>588311.1875</v>
       </c>
       <c r="F2">
-        <v>559414.5</v>
+        <v>587193.125</v>
       </c>
       <c r="G2">
-        <v>581486.1875</v>
+        <v>579991.375</v>
       </c>
       <c r="H2">
-        <v>547484.6472314111</v>
+        <v>591148.5</v>
       </c>
       <c r="I2">
-        <v>549430.4375</v>
+        <v>616091.1875</v>
       </c>
       <c r="J2">
-        <v>572688.9375</v>
+        <v>573161.26</v>
       </c>
       <c r="K2">
-        <v>546514.1749105559</v>
+        <v>563685.015139027</v>
       </c>
       <c r="L2">
-        <v>536129.48</v>
+        <v>547696</v>
       </c>
       <c r="M2">
-        <v>549696.3125</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N2">
-        <v>602882</v>
+        <v>543135.0625</v>
       </c>
       <c r="O2">
-        <v>512978.65625</v>
+        <v>591937.9375</v>
       </c>
       <c r="P2">
-        <v>428102.9375</v>
+        <v>322424.1875</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>609128</v>
+        <v>582320</v>
       </c>
       <c r="D3">
-        <v>609237.5625</v>
+        <v>580552.5</v>
       </c>
       <c r="E3">
-        <v>601795.5</v>
+        <v>577907.9375</v>
       </c>
       <c r="F3">
-        <v>597923</v>
+        <v>594224.6875</v>
       </c>
       <c r="G3">
-        <v>614608.125</v>
+        <v>590990</v>
       </c>
       <c r="H3">
-        <v>533711.8803422006</v>
+        <v>588717</v>
       </c>
       <c r="I3">
-        <v>549867.75</v>
+        <v>608112.625</v>
       </c>
       <c r="J3">
-        <v>602294.5</v>
+        <v>578063.34</v>
       </c>
       <c r="K3">
-        <v>542956.6630301869</v>
+        <v>585208.9038083429</v>
       </c>
       <c r="L3">
-        <v>552397.98</v>
+        <v>507747.375</v>
       </c>
       <c r="M3">
-        <v>523460.71875</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N3">
-        <v>586254.8125</v>
+        <v>500298.78125</v>
       </c>
       <c r="O3">
-        <v>515937.53125</v>
+        <v>512190.3125</v>
       </c>
       <c r="P3">
-        <v>391515.125</v>
+        <v>312152.3125</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>567550</v>
+        <v>549980</v>
       </c>
       <c r="D4">
-        <v>564419.5</v>
+        <v>544013.125</v>
       </c>
       <c r="E4">
-        <v>574836.375</v>
+        <v>537440.375</v>
       </c>
       <c r="F4">
-        <v>562541.5</v>
+        <v>557145.5</v>
       </c>
       <c r="G4">
-        <v>584027.0625</v>
+        <v>535457.8125</v>
       </c>
       <c r="H4">
-        <v>550445.1602228901</v>
+        <v>541293.25</v>
       </c>
       <c r="I4">
-        <v>557340.4375</v>
+        <v>558380.125</v>
       </c>
       <c r="J4">
-        <v>574213.6875</v>
+        <v>544577.15</v>
       </c>
       <c r="K4">
-        <v>546514.1749105559</v>
+        <v>516922.5986024174</v>
       </c>
       <c r="L4">
-        <v>536159.17</v>
+        <v>561697.125</v>
       </c>
       <c r="M4">
-        <v>534010.4375</v>
+        <v>553599.2866469674</v>
       </c>
       <c r="N4">
-        <v>528508.0625</v>
+        <v>547611.1875</v>
       </c>
       <c r="O4">
-        <v>506770.71875</v>
+        <v>521235.84375</v>
       </c>
       <c r="P4">
-        <v>282280.75</v>
+        <v>301443.03125</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="2">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>570404</v>
+        <v>605377</v>
       </c>
       <c r="D5">
-        <v>590517.125</v>
+        <v>607671.0625</v>
       </c>
       <c r="E5">
-        <v>585668.125</v>
+        <v>614793.4375</v>
       </c>
       <c r="F5">
-        <v>580242.125</v>
+        <v>626729.9375</v>
       </c>
       <c r="G5">
-        <v>593156.1875</v>
+        <v>590228.3125</v>
       </c>
       <c r="H5">
-        <v>558024.8589614483</v>
+        <v>602046.1875</v>
       </c>
       <c r="I5">
-        <v>553153.625</v>
+        <v>625087.6875</v>
       </c>
       <c r="J5">
-        <v>546932.0625</v>
+        <v>580894.52</v>
       </c>
       <c r="K5">
-        <v>543578.4126383123</v>
+        <v>583390.6326240132</v>
       </c>
       <c r="L5">
-        <v>552805.23</v>
+        <v>593999.875</v>
       </c>
       <c r="M5">
-        <v>559122.5625</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N5">
-        <v>613284.0625</v>
+        <v>582688.4375</v>
       </c>
       <c r="O5">
-        <v>499768.09375</v>
+        <v>557388.125</v>
       </c>
       <c r="P5">
-        <v>344611.90625</v>
+        <v>376838.71875</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>582320</v>
+        <v>587287</v>
       </c>
       <c r="D6">
-        <v>582308.5625</v>
+        <v>594644.1875</v>
       </c>
       <c r="E6">
-        <v>578718.125</v>
+        <v>597264.625</v>
       </c>
       <c r="F6">
-        <v>563830.8125</v>
+        <v>607709.1875</v>
       </c>
       <c r="G6">
-        <v>571024.75</v>
+        <v>573394.75</v>
       </c>
       <c r="H6">
-        <v>566759.9718614137</v>
+        <v>597925.25</v>
       </c>
       <c r="I6">
-        <v>548978.5625</v>
+        <v>607264.25</v>
       </c>
       <c r="J6">
-        <v>541640.875</v>
+        <v>559430.92</v>
       </c>
       <c r="K6">
-        <v>543578.4126383123</v>
+        <v>551584.5579947693</v>
       </c>
       <c r="L6">
-        <v>542903.6899999999</v>
+        <v>541246.5</v>
       </c>
       <c r="M6">
-        <v>519841.375</v>
+        <v>560620.1422325997</v>
       </c>
       <c r="N6">
-        <v>574569.625</v>
+        <v>540354.5625</v>
       </c>
       <c r="O6">
-        <v>485796.90625</v>
+        <v>531601.4375</v>
       </c>
       <c r="P6">
-        <v>358615.90625</v>
+        <v>364210.4375</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2">
-        <v>45170</v>
+        <v>45261</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>549980</v>
+        <v>612267</v>
       </c>
       <c r="D7">
-        <v>552197.125</v>
+        <v>616352.125</v>
       </c>
       <c r="E7">
-        <v>556573.125</v>
+        <v>616024</v>
       </c>
       <c r="F7">
-        <v>547669.25</v>
+        <v>628782.625</v>
       </c>
       <c r="G7">
-        <v>546045.375</v>
+        <v>573415.375</v>
       </c>
       <c r="H7">
-        <v>513238.2971364323</v>
+        <v>608763.4375</v>
       </c>
       <c r="I7">
-        <v>537352.0625</v>
+        <v>621899.6875</v>
       </c>
       <c r="J7">
-        <v>517361.09375</v>
+        <v>575040.54</v>
       </c>
       <c r="K7">
-        <v>545892.4253024305</v>
+        <v>559577.6078197056</v>
       </c>
       <c r="L7">
-        <v>534531.0699999999</v>
+        <v>530704.5</v>
       </c>
       <c r="M7">
-        <v>498654.25</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N7">
-        <v>449563.46875</v>
+        <v>526569.9375</v>
       </c>
       <c r="O7">
-        <v>493976.0625</v>
+        <v>492834.09375</v>
       </c>
       <c r="P7">
-        <v>327381.53125</v>
+        <v>312017.25</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2">
-        <v>45200</v>
+        <v>45292</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>605377</v>
+        <v>558618</v>
       </c>
       <c r="D8">
-        <v>610837.8125</v>
+        <v>567363.9375</v>
       </c>
       <c r="E8">
-        <v>605521</v>
+        <v>550058.375</v>
       </c>
       <c r="F8">
-        <v>605867</v>
+        <v>569814.0625</v>
       </c>
       <c r="G8">
-        <v>597353</v>
+        <v>565693.9375</v>
       </c>
       <c r="H8">
-        <v>576391.8395598264</v>
+        <v>541905.375</v>
       </c>
       <c r="I8">
-        <v>563032.75</v>
+        <v>580658.0625</v>
       </c>
       <c r="J8">
-        <v>568605.4375</v>
+        <v>566066.39</v>
       </c>
       <c r="K8">
-        <v>542956.6630301869</v>
+        <v>557812.9747542141</v>
       </c>
       <c r="L8">
-        <v>547955.98</v>
+        <v>535897.5</v>
       </c>
       <c r="M8">
-        <v>510301.3125</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N8">
-        <v>564789.875</v>
+        <v>502705.59375</v>
       </c>
       <c r="O8">
-        <v>521969.21875</v>
+        <v>457627.5625</v>
       </c>
       <c r="P8">
-        <v>371576.875</v>
+        <v>320029.65625</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2">
-        <v>45231</v>
+        <v>45323</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>587287</v>
+        <v>583061</v>
       </c>
       <c r="D9">
-        <v>596161.375</v>
+        <v>573058.5</v>
       </c>
       <c r="E9">
-        <v>574824</v>
+        <v>569272.5625</v>
       </c>
       <c r="F9">
-        <v>584033</v>
+        <v>577015.5</v>
       </c>
       <c r="G9">
-        <v>582434.5</v>
+        <v>548473.625</v>
       </c>
       <c r="H9">
-        <v>541346.5216018509</v>
+        <v>537795.125</v>
       </c>
       <c r="I9">
-        <v>536332.125</v>
+        <v>569191.125</v>
       </c>
       <c r="J9">
-        <v>574673.5</v>
+        <v>557732.89</v>
       </c>
       <c r="K9">
-        <v>546514.1749105559</v>
+        <v>527406.2510263834</v>
       </c>
       <c r="L9">
-        <v>541324.3</v>
+        <v>556508.9375</v>
       </c>
       <c r="M9">
-        <v>543956.625</v>
+        <v>553599.2866469674</v>
       </c>
       <c r="N9">
-        <v>696886.1875</v>
+        <v>540009.8125</v>
       </c>
       <c r="O9">
-        <v>538373.25</v>
+        <v>424406.78125</v>
       </c>
       <c r="P9">
-        <v>380376.5</v>
+        <v>307681.40625</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2">
-        <v>45261</v>
+        <v>45352</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>612267</v>
+        <v>577560</v>
       </c>
       <c r="D10">
-        <v>614347.6875</v>
+        <v>556982.75</v>
       </c>
       <c r="E10">
-        <v>588539.625</v>
+        <v>565512.625</v>
       </c>
       <c r="F10">
-        <v>597387.75</v>
+        <v>581201.4375</v>
       </c>
       <c r="G10">
-        <v>608193.25</v>
+        <v>584513.6875</v>
       </c>
       <c r="H10">
-        <v>554966.5246768919</v>
+        <v>555420.875</v>
       </c>
       <c r="I10">
-        <v>546680.6875</v>
+        <v>564663.75</v>
       </c>
       <c r="J10">
-        <v>578179.8125</v>
+        <v>568882.39</v>
       </c>
       <c r="K10">
-        <v>543578.4126383123</v>
+        <v>561952.1950348337</v>
       </c>
       <c r="L10">
-        <v>543288.3100000001</v>
+        <v>583215.3125</v>
       </c>
       <c r="M10">
-        <v>569061.4375</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N10">
-        <v>582859</v>
+        <v>575138.75</v>
       </c>
       <c r="O10">
-        <v>567988.9375</v>
+        <v>372654.53125</v>
       </c>
       <c r="P10">
-        <v>394199.53125</v>
+        <v>319328.15625</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>558618</v>
+        <v>585205</v>
       </c>
       <c r="D11">
-        <v>539043.375</v>
+        <v>589427</v>
       </c>
       <c r="E11">
-        <v>557724.375</v>
+        <v>585793.375</v>
       </c>
       <c r="F11">
-        <v>554419.5</v>
+        <v>592468.0625</v>
       </c>
       <c r="G11">
-        <v>549288.5</v>
+        <v>583727.125</v>
       </c>
       <c r="H11">
-        <v>548509.8524086128</v>
+        <v>560143.75</v>
       </c>
       <c r="I11">
-        <v>544763.375</v>
+        <v>579510.125</v>
       </c>
       <c r="J11">
-        <v>524310.25</v>
+        <v>561046.46</v>
       </c>
       <c r="K11">
-        <v>543578.4126383123</v>
+        <v>573390.9075823697</v>
       </c>
       <c r="L11">
-        <v>539869.16</v>
+        <v>601243.25</v>
       </c>
       <c r="M11">
-        <v>582969.9375</v>
+        <v>560620.1422325997</v>
       </c>
       <c r="N11">
-        <v>491267.84375</v>
+        <v>584661.1875</v>
       </c>
       <c r="O11">
-        <v>573859.4375</v>
+        <v>481142.15625</v>
       </c>
       <c r="P11">
-        <v>387599.15625</v>
+        <v>369510.84375</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>583061</v>
+        <v>632122</v>
       </c>
       <c r="D12">
-        <v>577992.0625</v>
+        <v>598418.9375</v>
       </c>
       <c r="E12">
-        <v>560303.75</v>
+        <v>621394.125</v>
       </c>
       <c r="F12">
-        <v>547399.3125</v>
+        <v>616103.1875</v>
       </c>
       <c r="G12">
-        <v>534416.625</v>
+        <v>545321.25</v>
       </c>
       <c r="H12">
-        <v>517759.8092126543</v>
+        <v>592106.5625</v>
       </c>
       <c r="I12">
-        <v>552351.1875</v>
+        <v>590728.5</v>
       </c>
       <c r="J12">
-        <v>541765.9375</v>
+        <v>560615.53</v>
       </c>
       <c r="K12">
-        <v>545892.4253024305</v>
+        <v>569451.6990441891</v>
       </c>
       <c r="L12">
-        <v>536955.0600000001</v>
+        <v>585119.875</v>
       </c>
       <c r="M12">
-        <v>591011.5</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N12">
-        <v>478624.5625</v>
+        <v>572771.1875</v>
       </c>
       <c r="O12">
-        <v>572339.0625</v>
+        <v>516660.40625</v>
       </c>
       <c r="P12">
-        <v>386856.8125</v>
+        <v>370794.71875</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>577560</v>
+        <v>592380</v>
       </c>
       <c r="D13">
-        <v>552937.5625</v>
+        <v>583754.875</v>
       </c>
       <c r="E13">
-        <v>556233.625</v>
+        <v>571432.75</v>
       </c>
       <c r="F13">
-        <v>545612.3125</v>
+        <v>598530.0625</v>
       </c>
       <c r="G13">
-        <v>559119.75</v>
+        <v>580302.9375</v>
       </c>
       <c r="H13">
-        <v>556882.1881211151</v>
+        <v>576599.625</v>
       </c>
       <c r="I13">
-        <v>552615.6875</v>
+        <v>583699.1875</v>
       </c>
       <c r="J13">
-        <v>520977.3125</v>
+        <v>556715.66</v>
       </c>
       <c r="K13">
-        <v>543578.4126383123</v>
+        <v>564885.5895064709</v>
       </c>
       <c r="L13">
-        <v>545948.72</v>
+        <v>586184.25</v>
       </c>
       <c r="M13">
-        <v>590046.5625</v>
+        <v>560620.1422325997</v>
       </c>
       <c r="N13">
-        <v>577554.6875</v>
+        <v>550598.3125</v>
       </c>
       <c r="O13">
-        <v>552450</v>
+        <v>434717.59375</v>
       </c>
       <c r="P13">
-        <v>418626.90625</v>
+        <v>349896.9375</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>585205</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>571372.625</v>
+        <v>576049.75</v>
       </c>
       <c r="E14">
-        <v>560926.9375</v>
+        <v>574276.9375</v>
       </c>
       <c r="F14">
-        <v>581368.125</v>
+        <v>577650.125</v>
       </c>
       <c r="G14">
-        <v>591172.25</v>
+        <v>578489.625</v>
       </c>
       <c r="H14">
-        <v>560997.4856763028</v>
+        <v>551281.25</v>
       </c>
       <c r="I14">
-        <v>545738.75</v>
+        <v>556247.25</v>
       </c>
       <c r="J14">
-        <v>529726.875</v>
+        <v>568648.97</v>
       </c>
       <c r="K14">
-        <v>546514.1749105559</v>
+        <v>561790.3902429697</v>
       </c>
       <c r="L14">
-        <v>541147.2</v>
+        <v>582730.75</v>
       </c>
       <c r="M14">
-        <v>576427.4375</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N14">
-        <v>619523.3125</v>
+        <v>568560.0625</v>
       </c>
       <c r="O14">
-        <v>563505</v>
+        <v>560523.125</v>
       </c>
       <c r="P14">
-        <v>422427.5625</v>
+        <v>350315.90625</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2">
-        <v>45413</v>
+        <v>45505</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>632122</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>591795.875</v>
+        <v>608337.625</v>
       </c>
       <c r="E15">
-        <v>583814.375</v>
+        <v>599991.75</v>
       </c>
       <c r="F15">
-        <v>595441.5625</v>
+        <v>599341.0625</v>
       </c>
       <c r="G15">
-        <v>593338.875</v>
+        <v>581936.5</v>
       </c>
       <c r="H15">
-        <v>563468.6155464577</v>
+        <v>577171.375</v>
       </c>
       <c r="I15">
-        <v>545251</v>
+        <v>593899.125</v>
       </c>
       <c r="J15">
-        <v>561330</v>
+        <v>559931.24</v>
       </c>
       <c r="K15">
-        <v>542956.6630301869</v>
+        <v>569991.4721018069</v>
       </c>
       <c r="L15">
-        <v>540631.16</v>
+        <v>598986.625</v>
       </c>
       <c r="M15">
-        <v>582219.125</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N15">
-        <v>645713</v>
+        <v>569517.0625</v>
       </c>
       <c r="O15">
-        <v>586258.375</v>
+        <v>358530.28125</v>
       </c>
       <c r="P15">
-        <v>432907.40625</v>
+        <v>346208.1875</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2">
-        <v>45444</v>
+        <v>45536</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>592380</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>558611.25</v>
+        <v>587021.9375</v>
       </c>
       <c r="E16">
-        <v>535637.875</v>
+        <v>566269.8125</v>
       </c>
       <c r="F16">
-        <v>564802.125</v>
+        <v>590776.4375</v>
       </c>
       <c r="G16">
-        <v>541404.5</v>
+        <v>528693.1875</v>
       </c>
       <c r="H16">
-        <v>560694.2645869321</v>
+        <v>559810.25</v>
       </c>
       <c r="I16">
-        <v>557472.125</v>
+        <v>591843.875</v>
       </c>
       <c r="J16">
-        <v>527127.4375</v>
+        <v>554662.9300000001</v>
       </c>
       <c r="K16">
-        <v>546514.1749105559</v>
+        <v>519156.7440982739</v>
       </c>
       <c r="L16">
-        <v>539430.85</v>
+        <v>631747.375</v>
       </c>
       <c r="M16">
-        <v>614299.5</v>
+        <v>560620.1422325997</v>
       </c>
       <c r="N16">
-        <v>577658</v>
+        <v>620066.9375</v>
       </c>
       <c r="O16">
-        <v>624008.75</v>
+        <v>464174.84375</v>
       </c>
       <c r="P16">
-        <v>417597.375</v>
+        <v>333987.53125</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2">
-        <v>45474</v>
+        <v>45566</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1638,48 +1638,48 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>542964.625</v>
+        <v>620509.75</v>
       </c>
       <c r="E17">
-        <v>560887.875</v>
+        <v>606484.75</v>
       </c>
       <c r="F17">
-        <v>540514.4375</v>
+        <v>600202.4375</v>
       </c>
       <c r="G17">
-        <v>532206.8125</v>
+        <v>580931</v>
       </c>
       <c r="H17">
-        <v>527519.5514512951</v>
+        <v>583981.625</v>
       </c>
       <c r="I17">
-        <v>543173.75</v>
+        <v>594725</v>
       </c>
       <c r="J17">
-        <v>529267.5625</v>
+        <v>559936.41</v>
       </c>
       <c r="K17">
-        <v>543578.4126383123</v>
+        <v>578221.3416352445</v>
       </c>
       <c r="L17">
-        <v>540672.38</v>
+        <v>666844.25</v>
       </c>
       <c r="M17">
-        <v>655765.9375</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N17">
-        <v>496248.5</v>
+        <v>654547.9375</v>
       </c>
       <c r="O17">
-        <v>637528.5</v>
+        <v>399888.78125</v>
       </c>
       <c r="P17">
-        <v>438421.5</v>
+        <v>392132.78125</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="2">
-        <v>45505</v>
+        <v>45597</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1688,48 +1688,48 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>577652.75</v>
+        <v>604166</v>
       </c>
       <c r="E18">
-        <v>581867.375</v>
+        <v>600116.5</v>
       </c>
       <c r="F18">
-        <v>579385.0625</v>
+        <v>603729.125</v>
       </c>
       <c r="G18">
-        <v>556514.0625</v>
+        <v>584065</v>
       </c>
       <c r="H18">
-        <v>570969.706242337</v>
+        <v>585581.0625</v>
       </c>
       <c r="I18">
-        <v>554877.5625</v>
+        <v>587146</v>
       </c>
       <c r="J18">
-        <v>546565.5</v>
+        <v>559488.26</v>
       </c>
       <c r="K18">
-        <v>543578.4126383123</v>
+        <v>566486.0974984062</v>
       </c>
       <c r="L18">
-        <v>540524.14</v>
+        <v>651376.8125</v>
       </c>
       <c r="M18">
-        <v>648664.0625</v>
+        <v>560620.1422325997</v>
       </c>
       <c r="N18">
-        <v>498220.875</v>
+        <v>633114.625</v>
       </c>
       <c r="O18">
-        <v>622843.625</v>
+        <v>524760.75</v>
       </c>
       <c r="P18">
-        <v>466799.1875</v>
+        <v>396044.53125</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="2">
-        <v>45536</v>
+        <v>45627</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1738,48 +1738,48 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>568969.875</v>
+        <v>624979.625</v>
       </c>
       <c r="E19">
-        <v>566916</v>
+        <v>616809.625</v>
       </c>
       <c r="F19">
-        <v>560779.3125</v>
+        <v>624496.5</v>
       </c>
       <c r="G19">
-        <v>545260.8125</v>
+        <v>580557.25</v>
       </c>
       <c r="H19">
-        <v>508619.1461799892</v>
+        <v>604460.4375</v>
       </c>
       <c r="I19">
-        <v>533819.5625</v>
+        <v>608392.75</v>
       </c>
       <c r="J19">
-        <v>542435.0625</v>
+        <v>559124.4300000001</v>
       </c>
       <c r="K19">
-        <v>545892.4253024305</v>
+        <v>573985.3039603129</v>
       </c>
       <c r="L19">
-        <v>535048.17</v>
+        <v>617845.375</v>
       </c>
       <c r="M19">
-        <v>616220.6875</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N19">
-        <v>552075.75</v>
+        <v>608105.3125</v>
       </c>
       <c r="O19">
-        <v>593721.6875</v>
+        <v>525821.3125</v>
       </c>
       <c r="P19">
-        <v>447632.0625</v>
+        <v>387078.625</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="2">
-        <v>45566</v>
+        <v>45658</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1788,48 +1788,48 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>608434.375</v>
+        <v>533491.875</v>
       </c>
       <c r="E20">
-        <v>579439.8125</v>
+        <v>531504.5625</v>
       </c>
       <c r="F20">
-        <v>593447</v>
+        <v>531840.75</v>
       </c>
       <c r="G20">
-        <v>572090</v>
+        <v>509567.375</v>
       </c>
       <c r="H20">
-        <v>567771.3949652715</v>
+        <v>504666.4375</v>
       </c>
       <c r="I20">
-        <v>552655.875</v>
+        <v>520318.40625</v>
       </c>
       <c r="J20">
-        <v>547192.9375</v>
+        <v>544876.23</v>
       </c>
       <c r="K20">
-        <v>542956.6630301869</v>
+        <v>500104.7147783907</v>
       </c>
       <c r="L20">
-        <v>541591.9</v>
+        <v>602270.875</v>
       </c>
       <c r="M20">
-        <v>595383.625</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N20">
-        <v>732369.8125</v>
+        <v>569032.4375</v>
       </c>
       <c r="O20">
-        <v>585007.5625</v>
+        <v>387031.09375</v>
       </c>
       <c r="P20">
-        <v>467423.84375</v>
+        <v>375462.71875</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="2">
-        <v>45597</v>
+        <v>45689</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1838,48 +1838,48 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>587412.375</v>
+        <v>589817.875</v>
       </c>
       <c r="E21">
-        <v>568514.75</v>
+        <v>602922.25</v>
       </c>
       <c r="F21">
-        <v>580683.1875</v>
+        <v>599882.125</v>
       </c>
       <c r="G21">
-        <v>566528</v>
+        <v>579333.25</v>
       </c>
       <c r="H21">
-        <v>568507.8907394485</v>
+        <v>557637.875</v>
       </c>
       <c r="I21">
-        <v>561319.75</v>
+        <v>578496.375</v>
       </c>
       <c r="J21">
-        <v>547849.3125</v>
+        <v>561812.63</v>
       </c>
       <c r="K21">
-        <v>546514.1749105559</v>
+        <v>545760.8324972028</v>
       </c>
       <c r="L21">
-        <v>540288.6800000001</v>
+        <v>602159.375</v>
       </c>
       <c r="M21">
-        <v>588870.125</v>
+        <v>560620.1422325997</v>
       </c>
       <c r="N21">
-        <v>615438.3125</v>
+        <v>584815.375</v>
       </c>
       <c r="O21">
-        <v>603882.4375</v>
+        <v>420873.40625</v>
       </c>
       <c r="P21">
-        <v>461780.6875</v>
+        <v>354718.15625</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="2">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1888,48 +1888,48 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>601744.25</v>
+        <v>558658.3125</v>
       </c>
       <c r="E22">
-        <v>594272.1875</v>
+        <v>540855.625</v>
       </c>
       <c r="F22">
-        <v>602071.5625</v>
+        <v>551401.8125</v>
       </c>
       <c r="G22">
-        <v>589874.75</v>
+        <v>568991.8125</v>
       </c>
       <c r="H22">
-        <v>568878.2551155618</v>
+        <v>532055.6875</v>
       </c>
       <c r="I22">
-        <v>552003</v>
+        <v>531964.1875</v>
       </c>
       <c r="J22">
-        <v>568419.0625</v>
+        <v>552422.04</v>
       </c>
       <c r="K22">
-        <v>543578.4126383123</v>
+        <v>554204.5792216633</v>
       </c>
       <c r="L22">
-        <v>541919.05</v>
+        <v>665229.375</v>
       </c>
       <c r="M22">
-        <v>648703.875</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N22">
-        <v>683963.375</v>
+        <v>649135.4375</v>
       </c>
       <c r="O22">
-        <v>668394.875</v>
+        <v>481787.78125</v>
       </c>
       <c r="P22">
-        <v>472987.65625</v>
+        <v>369176.1875</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2">
-        <v>45658</v>
+        <v>45748</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1938,48 +1938,48 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>524284.71875</v>
+        <v>572717.5</v>
       </c>
       <c r="E23">
-        <v>519137.5625</v>
+        <v>591079.0625</v>
       </c>
       <c r="F23">
-        <v>529367.1875</v>
+        <v>573559.25</v>
       </c>
       <c r="G23">
-        <v>511956.4375</v>
+        <v>577820</v>
       </c>
       <c r="H23">
-        <v>484520.514493092</v>
+        <v>548889</v>
       </c>
       <c r="I23">
-        <v>494183.625</v>
+        <v>558681.25</v>
       </c>
       <c r="J23">
-        <v>515546.125</v>
+        <v>562630.0699999999</v>
       </c>
       <c r="K23">
-        <v>542956.6630301869</v>
+        <v>564687.8551774523</v>
       </c>
       <c r="L23">
-        <v>529643.5699999999</v>
+        <v>730806.625</v>
       </c>
       <c r="M23">
-        <v>710057.9375</v>
+        <v>560620.1422325997</v>
       </c>
       <c r="N23">
-        <v>566913.25</v>
+        <v>700084.625</v>
       </c>
       <c r="O23">
-        <v>706932.1875</v>
+        <v>440271.1875</v>
       </c>
       <c r="P23">
-        <v>517569.96875</v>
+        <v>386964.6875</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="2">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1988,48 +1988,48 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>591020.75</v>
+        <v>619734.625</v>
       </c>
       <c r="E24">
-        <v>569364.5</v>
+        <v>604026.875</v>
       </c>
       <c r="F24">
-        <v>602912.875</v>
+        <v>606043.375</v>
       </c>
       <c r="G24">
-        <v>572955.5</v>
+        <v>565664.1875</v>
       </c>
       <c r="H24">
-        <v>544469.949068674</v>
+        <v>589765.375</v>
       </c>
       <c r="I24">
-        <v>552583.125</v>
+        <v>594500.625</v>
       </c>
       <c r="J24">
-        <v>562765.6875</v>
+        <v>554435.42</v>
       </c>
       <c r="K24">
-        <v>546514.1749105559</v>
+        <v>552167.0530952574</v>
       </c>
       <c r="L24">
-        <v>540983.8100000001</v>
+        <v>718501</v>
       </c>
       <c r="M24">
-        <v>729098.9375</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N24">
-        <v>633493.0625</v>
+        <v>695017.0625</v>
       </c>
       <c r="O24">
-        <v>717475.125</v>
+        <v>400453.84375</v>
       </c>
       <c r="P24">
-        <v>587823.5625</v>
+        <v>428476.125</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="2">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2038,48 +2038,48 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>541153.4375</v>
+        <v>593217</v>
       </c>
       <c r="E25">
-        <v>518904</v>
+        <v>592179.5</v>
       </c>
       <c r="F25">
-        <v>546935.9375</v>
+        <v>574212.6875</v>
       </c>
       <c r="G25">
-        <v>539965.25</v>
+        <v>583726.3125</v>
       </c>
       <c r="H25">
-        <v>551053.7114016494</v>
+        <v>564328.375</v>
       </c>
       <c r="I25">
-        <v>541169.625</v>
+        <v>570158.375</v>
       </c>
       <c r="J25">
-        <v>525281.8125</v>
+        <v>562454.4399999999</v>
       </c>
       <c r="K25">
-        <v>542956.6630301869</v>
+        <v>572765.4563710622</v>
       </c>
       <c r="L25">
-        <v>538891.03</v>
+        <v>723269.1875</v>
       </c>
       <c r="M25">
-        <v>732911</v>
+        <v>560620.1422325997</v>
       </c>
       <c r="N25">
-        <v>612980.6875</v>
+        <v>681949.125</v>
       </c>
       <c r="O25">
-        <v>722446.25</v>
+        <v>489040.59375</v>
       </c>
       <c r="P25">
-        <v>582427.9375</v>
+        <v>409225.46875</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="2">
-        <v>45748</v>
+        <v>45839</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2088,48 +2088,48 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>550634.5</v>
+        <v>581893.125</v>
       </c>
       <c r="E26">
-        <v>552095.6875</v>
+        <v>570438.25</v>
       </c>
       <c r="F26">
-        <v>555615.875</v>
+        <v>561011.375</v>
       </c>
       <c r="G26">
-        <v>544613.5625</v>
+        <v>578489.625</v>
       </c>
       <c r="H26">
-        <v>547295.0818018671</v>
+        <v>556122.5</v>
       </c>
       <c r="I26">
-        <v>545429.4375</v>
+        <v>552212.375</v>
       </c>
       <c r="J26">
-        <v>513700.9375</v>
+        <v>568648.97</v>
       </c>
       <c r="K26">
-        <v>546514.1749105559</v>
+        <v>561790.3902429697</v>
       </c>
       <c r="L26">
-        <v>541491.49</v>
+        <v>728974.25</v>
       </c>
       <c r="M26">
-        <v>728089.375</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N26">
-        <v>648235.4375</v>
+        <v>679934.9375</v>
       </c>
       <c r="O26">
-        <v>718313</v>
+        <v>332613</v>
       </c>
       <c r="P26">
-        <v>616563.5625</v>
+        <v>435292.375</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="2">
-        <v>45778</v>
+        <v>45870</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2138,48 +2138,48 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>599917.875</v>
+        <v>594923.1875</v>
       </c>
       <c r="E27">
-        <v>578934.5625</v>
+        <v>591289.9375</v>
       </c>
       <c r="F27">
-        <v>585863.25</v>
+        <v>603178.25</v>
       </c>
       <c r="G27">
-        <v>562494.3125</v>
+        <v>581936.5</v>
       </c>
       <c r="H27">
-        <v>543611.6963406346</v>
+        <v>569559.25</v>
       </c>
       <c r="I27">
-        <v>541787.1875</v>
+        <v>555885.125</v>
       </c>
       <c r="J27">
-        <v>566284.5</v>
+        <v>559931.24</v>
       </c>
       <c r="K27">
-        <v>542956.6630301869</v>
+        <v>569991.4721018069</v>
       </c>
       <c r="L27">
-        <v>535274.72</v>
+        <v>725748</v>
       </c>
       <c r="M27">
-        <v>741357.6875</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N27">
-        <v>650184.8125</v>
+        <v>694288.9375</v>
       </c>
       <c r="O27">
-        <v>733719.1875</v>
+        <v>541394.1875</v>
       </c>
       <c r="P27">
-        <v>592085.25</v>
+        <v>476114.9375</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="2">
-        <v>45809</v>
+        <v>45901</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2188,48 +2188,48 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>565192.375</v>
+        <v>618140.4375</v>
       </c>
       <c r="E28">
-        <v>558843.4375</v>
+        <v>603987</v>
       </c>
       <c r="F28">
-        <v>571794.5</v>
+        <v>618584.75</v>
       </c>
       <c r="G28">
-        <v>560624.8125</v>
+        <v>578916.6875</v>
       </c>
       <c r="H28">
-        <v>560997.4856763028</v>
+        <v>582349.25</v>
       </c>
       <c r="I28">
-        <v>545738.75</v>
+        <v>588918.875</v>
       </c>
       <c r="J28">
-        <v>533966.6875</v>
+        <v>564038.05</v>
       </c>
       <c r="K28">
-        <v>546514.1749105559</v>
+        <v>562956.7275330458</v>
       </c>
       <c r="L28">
-        <v>541147.2</v>
+        <v>787059.5625</v>
       </c>
       <c r="M28">
-        <v>764244.75</v>
+        <v>560620.1422325997</v>
       </c>
       <c r="N28">
-        <v>766756.8125</v>
+        <v>772784.3125</v>
       </c>
       <c r="O28">
-        <v>739943.6875</v>
+        <v>437282.40625</v>
       </c>
       <c r="P28">
-        <v>580562.375</v>
+        <v>493048.9375</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="2">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2238,48 +2238,48 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>538766.875</v>
+        <v>612961.75</v>
       </c>
       <c r="E29">
-        <v>540446.625</v>
+        <v>603438.125</v>
       </c>
       <c r="F29">
-        <v>556005</v>
+        <v>599209.6875</v>
       </c>
       <c r="G29">
-        <v>545232.125</v>
+        <v>528742.75</v>
       </c>
       <c r="H29">
-        <v>527519.5514512951</v>
+        <v>582680.9375</v>
       </c>
       <c r="I29">
-        <v>543173.75</v>
+        <v>608438.75</v>
       </c>
       <c r="J29">
-        <v>528064.9375</v>
+        <v>554350.92</v>
       </c>
       <c r="K29">
-        <v>543578.4126383123</v>
+        <v>514520.260891129</v>
       </c>
       <c r="L29">
-        <v>540672.38</v>
+        <v>772679.1875</v>
       </c>
       <c r="M29">
-        <v>769941.8125</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N29">
-        <v>656861</v>
+        <v>765232.125</v>
       </c>
       <c r="O29">
-        <v>744656.75</v>
+        <v>644834.875</v>
       </c>
       <c r="P29">
-        <v>611999</v>
+        <v>564803.375</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="2">
-        <v>45870</v>
+        <v>45962</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2288,48 +2288,48 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>558061</v>
+        <v>604273.625</v>
       </c>
       <c r="E30">
-        <v>563415.5</v>
+        <v>606649.1875</v>
       </c>
       <c r="F30">
-        <v>570361.25</v>
+        <v>609424.25</v>
       </c>
       <c r="G30">
-        <v>567901.25</v>
+        <v>584065</v>
       </c>
       <c r="H30">
-        <v>570969.706242337</v>
+        <v>577792.5</v>
       </c>
       <c r="I30">
-        <v>554877.5625</v>
+        <v>585860.75</v>
       </c>
       <c r="J30">
-        <v>541464.5625</v>
+        <v>559488.26</v>
       </c>
       <c r="K30">
-        <v>543578.4126383123</v>
+        <v>566486.0974984062</v>
       </c>
       <c r="L30">
-        <v>540524.14</v>
+        <v>772267.125</v>
       </c>
       <c r="M30">
-        <v>763849.1875</v>
+        <v>560620.1422325997</v>
       </c>
       <c r="N30">
-        <v>552558.5</v>
+        <v>758794.125</v>
       </c>
       <c r="O30">
-        <v>728614.625</v>
+        <v>572506.4375</v>
       </c>
       <c r="P30">
-        <v>583119</v>
+        <v>512232.71875</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="2">
-        <v>45901</v>
+        <v>45992</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2338,193 +2338,43 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>575942.75</v>
+        <v>627538.4375</v>
       </c>
       <c r="E31">
-        <v>581099.75</v>
+        <v>615303.0625</v>
       </c>
       <c r="F31">
-        <v>588833.1875</v>
+        <v>612623.25</v>
       </c>
       <c r="G31">
-        <v>567044.9375</v>
+        <v>585271.8125</v>
       </c>
       <c r="H31">
-        <v>547073.3371137258</v>
+        <v>600188.4375</v>
       </c>
       <c r="I31">
-        <v>545429.4375</v>
+        <v>603427.0625</v>
       </c>
       <c r="J31">
-        <v>548611.5</v>
+        <v>562644.53</v>
       </c>
       <c r="K31">
-        <v>546514.1749105559</v>
+        <v>571769.193257779</v>
       </c>
       <c r="L31">
-        <v>541491.49</v>
+        <v>762854.625</v>
       </c>
       <c r="M31">
-        <v>761708.125</v>
+        <v>557300.1817440863</v>
       </c>
       <c r="N31">
-        <v>523551.34375</v>
+        <v>754982.1875</v>
       </c>
       <c r="O31">
-        <v>730208.1875</v>
+        <v>505606.78125</v>
       </c>
       <c r="P31">
-        <v>597562.125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="2">
-        <v>45931</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>593795.125</v>
-      </c>
-      <c r="E32">
-        <v>594892.75</v>
-      </c>
-      <c r="F32">
-        <v>598960.75</v>
-      </c>
-      <c r="G32">
-        <v>600494.125</v>
-      </c>
-      <c r="H32">
-        <v>493281.5149736548</v>
-      </c>
-      <c r="I32">
-        <v>508577.3125</v>
-      </c>
-      <c r="J32">
-        <v>604423.375</v>
-      </c>
-      <c r="K32">
-        <v>542956.6630301869</v>
-      </c>
-      <c r="L32">
-        <v>533736.7</v>
-      </c>
-      <c r="M32">
-        <v>759062.9375</v>
-      </c>
-      <c r="N32">
-        <v>463892.875</v>
-      </c>
-      <c r="O32">
-        <v>725856.1875</v>
-      </c>
-      <c r="P32">
-        <v>602262.1875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="2">
-        <v>45962</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>562783.9375</v>
-      </c>
-      <c r="E33">
-        <v>568420.5625</v>
-      </c>
-      <c r="F33">
-        <v>584655.25</v>
-      </c>
-      <c r="G33">
-        <v>588966.875</v>
-      </c>
-      <c r="H33">
-        <v>568507.8907394485</v>
-      </c>
-      <c r="I33">
-        <v>561319.75</v>
-      </c>
-      <c r="J33">
-        <v>562941.25</v>
-      </c>
-      <c r="K33">
-        <v>546514.1749105559</v>
-      </c>
-      <c r="L33">
-        <v>540288.6800000001</v>
-      </c>
-      <c r="M33">
-        <v>762242.625</v>
-      </c>
-      <c r="N33">
-        <v>664415.8125</v>
-      </c>
-      <c r="O33">
-        <v>723225.5625</v>
-      </c>
-      <c r="P33">
-        <v>589069.4375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="2">
-        <v>45992</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>567890.0625</v>
-      </c>
-      <c r="E34">
-        <v>599369</v>
-      </c>
-      <c r="F34">
-        <v>610009.5</v>
-      </c>
-      <c r="G34">
-        <v>593663.375</v>
-      </c>
-      <c r="H34">
-        <v>559117.2403019994</v>
-      </c>
-      <c r="I34">
-        <v>543831.5625</v>
-      </c>
-      <c r="J34">
-        <v>564020.5</v>
-      </c>
-      <c r="K34">
-        <v>543578.4126383123</v>
-      </c>
-      <c r="L34">
-        <v>538900.84</v>
-      </c>
-      <c r="M34">
-        <v>746565.1875</v>
-      </c>
-      <c r="N34">
-        <v>696394.5625</v>
-      </c>
-      <c r="O34">
-        <v>736361.75</v>
-      </c>
-      <c r="P34">
-        <v>610433.625</v>
+        <v>528851.6875</v>
       </c>
     </row>
   </sheetData>
